--- a/public/templates/FormTemplate.xlsx
+++ b/public/templates/FormTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F9BBD-CDD5-4926-99A6-E6497B3AFC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96497A40-EFD7-4A16-AB9E-B49FB3511882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AK$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AK$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Tanggal Dibuat　　　　/　　　　/　　　　</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Jumlah</t>
   </si>
   <si>
-    <t>CATATAN</t>
-  </si>
-  <si>
     <t>Keterangan</t>
   </si>
   <si>
@@ -92,28 +89,6 @@
   </si>
   <si>
     <t>HR-GA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Approval ITD hanya diperlukan untuk barang yang dipinjamkan yang berkaitan dengan aset IT seperti laptop/PC, Proyektor, Printer, dan lain-lain.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     Untuk semua Barang Kembali harus ditempel stiker yang berisi tanggal kembali.</t>
   </si>
   <si>
     <t>Satuan</t>
@@ -639,17 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -665,6 +629,21 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -682,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -724,66 +703,102 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -800,24 +815,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,17 +845,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -851,9 +875,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -872,95 +893,66 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -989,13 +981,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>280303</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>186139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>6118</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>157992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1375,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BADE7E7-E9FC-437D-8B0A-98D54EAB469F}">
-  <dimension ref="A1:CC48"/>
+  <dimension ref="A1:CB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E6" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AX45" sqref="AX45:BA47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="16.8"/>
@@ -2813,8 +2805,8 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
-        <v>18</v>
+      <c r="B2" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2842,14 +2834,14 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -2857,445 +2849,458 @@
     <row r="3" spans="1:40" ht="16.2" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="41" t="s">
-        <v>15</v>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
+        <v>14</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
       <c r="AK3" s="5"/>
       <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:40" ht="13.8" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
       <c r="AK4" s="5"/>
       <c r="AM4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="19.2" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
       <c r="AK5" s="5"/>
       <c r="AM5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="16.95" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="S6" s="46" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="52" t="s">
+      <c r="T6" s="58"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="53"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="77"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="66"/>
       <c r="AK6" s="14"/>
       <c r="AM6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="16.8" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="55" t="s">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="W7" s="56"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="78"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="67"/>
       <c r="AK7" s="14"/>
       <c r="AM7" s="12"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="59" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="60"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="78"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="67"/>
       <c r="AK8" s="14"/>
       <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="1:40" ht="17.55" customHeight="1" thickBot="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="62" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="63"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="80"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
       <c r="AK9" s="14"/>
       <c r="AM9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="9" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="18"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="16"/>
       <c r="AM10" s="12"/>
     </row>
     <row r="11" spans="1:40" ht="17.399999999999999" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="37" t="s">
-        <v>14</v>
+      <c r="C11" s="49" t="s">
+        <v>13</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="18"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="16"/>
       <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:40" ht="17.399999999999999" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="65" t="s">
-        <v>13</v>
+      <c r="C12" s="53" t="s">
+        <v>12</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="65"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
       <c r="AK12" s="5"/>
       <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:40" ht="10.95" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
       <c r="AK13" s="5"/>
       <c r="AM13" s="1"/>
     </row>
@@ -3303,39 +3308,39 @@
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="82"/>
       <c r="AK14" s="14"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="1"/>
@@ -3343,42 +3348,42 @@
     <row r="15" spans="1:40" ht="17.399999999999999" thickBot="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="36" t="s">
-        <v>16</v>
+      <c r="C15" s="48" t="s">
+        <v>15</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
       <c r="AK15" s="14"/>
       <c r="AM15" s="12"/>
       <c r="AN15" s="12"/>
@@ -3386,1508 +3391,1290 @@
     <row r="16" spans="1:40" ht="9.6" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="28"/>
-      <c r="AJ16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="23"/>
       <c r="AK16" s="5"/>
       <c r="AM16" s="12"/>
       <c r="AN16" s="12"/>
     </row>
-    <row r="17" spans="1:81">
+    <row r="17" spans="1:80">
       <c r="A17" s="1"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32" t="s">
-        <v>24</v>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26" t="s">
+        <v>21</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32" t="s">
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32" t="s">
-        <v>22</v>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26" t="s">
+        <v>19</v>
       </c>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32" t="s">
-        <v>12</v>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26" t="s">
+        <v>11</v>
       </c>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="30"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="14"/>
       <c r="AM17" s="12"/>
       <c r="AN17" s="12"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="82"/>
-      <c r="AU17" s="82"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="82"/>
-      <c r="BB17" s="82"/>
-      <c r="BC17" s="82"/>
-      <c r="BD17" s="82"/>
-      <c r="BE17" s="82"/>
-      <c r="BF17" s="83"/>
-      <c r="BG17" s="83"/>
-      <c r="BH17" s="83"/>
-      <c r="BI17" s="83"/>
-      <c r="BJ17" s="81"/>
-      <c r="BK17" s="81"/>
-      <c r="BL17" s="81"/>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="84"/>
-      <c r="BO17" s="85"/>
-      <c r="BP17" s="85"/>
-      <c r="BQ17" s="85"/>
-      <c r="BR17" s="86"/>
-      <c r="BS17" s="86"/>
-      <c r="BT17" s="86"/>
-      <c r="BU17" s="86"/>
-      <c r="BV17" s="86"/>
-      <c r="BW17" s="86"/>
-      <c r="BX17" s="86"/>
-      <c r="BY17" s="86"/>
-      <c r="BZ17" s="86"/>
-      <c r="CA17" s="86"/>
-      <c r="CB17" s="86"/>
-      <c r="CC17" s="81"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="40"/>
+      <c r="BG17" s="40"/>
+      <c r="BH17" s="40"/>
+      <c r="BI17" s="40"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="43"/>
+      <c r="BO17" s="44"/>
+      <c r="BP17" s="44"/>
+      <c r="BQ17" s="44"/>
+      <c r="BR17" s="45"/>
+      <c r="BS17" s="45"/>
+      <c r="BT17" s="45"/>
+      <c r="BU17" s="45"/>
+      <c r="BV17" s="45"/>
+      <c r="BW17" s="45"/>
+      <c r="BX17" s="45"/>
+      <c r="BY17" s="45"/>
+      <c r="BZ17" s="45"/>
+      <c r="CA17" s="45"/>
+      <c r="CB17" s="45"/>
     </row>
-    <row r="18" spans="1:81">
+    <row r="18" spans="1:80">
       <c r="A18" s="1"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="35"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
       <c r="S18" s="35"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
       <c r="AC18" s="35"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="66"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="31"/>
       <c r="AK18" s="14"/>
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="82"/>
-      <c r="AU18" s="82"/>
-      <c r="AV18" s="82"/>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="82"/>
-      <c r="AY18" s="82"/>
-      <c r="AZ18" s="82"/>
-      <c r="BA18" s="82"/>
-      <c r="BB18" s="82"/>
-      <c r="BC18" s="83"/>
-      <c r="BD18" s="83"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="87"/>
-      <c r="BG18" s="87"/>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="87"/>
-      <c r="BJ18" s="81"/>
-      <c r="BK18" s="81"/>
-      <c r="BL18" s="81"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="84"/>
-      <c r="BO18" s="88"/>
-      <c r="BP18" s="88"/>
-      <c r="BQ18" s="88"/>
-      <c r="BR18" s="86"/>
-      <c r="BS18" s="86"/>
-      <c r="BT18" s="86"/>
-      <c r="BU18" s="86"/>
-      <c r="BV18" s="86"/>
-      <c r="BW18" s="86"/>
-      <c r="BX18" s="86"/>
-      <c r="BY18" s="86"/>
-      <c r="BZ18" s="86"/>
-      <c r="CA18" s="86"/>
-      <c r="CB18" s="86"/>
-      <c r="CC18" s="81"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="40"/>
+      <c r="BD18" s="40"/>
+      <c r="BE18" s="40"/>
+      <c r="BF18" s="41"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="41"/>
+      <c r="BI18" s="41"/>
+      <c r="BM18" s="43"/>
+      <c r="BN18" s="43"/>
+      <c r="BO18" s="46"/>
+      <c r="BP18" s="46"/>
+      <c r="BQ18" s="46"/>
+      <c r="BR18" s="45"/>
+      <c r="BS18" s="45"/>
+      <c r="BT18" s="45"/>
+      <c r="BU18" s="45"/>
+      <c r="BV18" s="45"/>
+      <c r="BW18" s="45"/>
+      <c r="BX18" s="45"/>
+      <c r="BY18" s="45"/>
+      <c r="BZ18" s="45"/>
+      <c r="CA18" s="45"/>
+      <c r="CB18" s="45"/>
     </row>
-    <row r="19" spans="1:81">
+    <row r="19" spans="1:80">
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
       <c r="AC19" s="35"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="30"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="14"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="89"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="89"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="89"/>
-      <c r="BA19" s="89"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="89"/>
-      <c r="BD19" s="89"/>
-      <c r="BE19" s="89"/>
-      <c r="BF19" s="90"/>
-      <c r="BG19" s="90"/>
-      <c r="BH19" s="90"/>
-      <c r="BI19" s="90"/>
-      <c r="BJ19" s="81"/>
-      <c r="BK19" s="81"/>
-      <c r="BL19" s="81"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="84"/>
-      <c r="BO19" s="91"/>
-      <c r="BP19" s="91"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="86"/>
-      <c r="BS19" s="86"/>
-      <c r="BT19" s="86"/>
-      <c r="BU19" s="86"/>
-      <c r="BV19" s="86"/>
-      <c r="BW19" s="86"/>
-      <c r="BX19" s="86"/>
-      <c r="BY19" s="86"/>
-      <c r="BZ19" s="86"/>
-      <c r="CA19" s="86"/>
-      <c r="CB19" s="86"/>
-      <c r="CC19" s="81"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BM19" s="43"/>
+      <c r="BN19" s="43"/>
+      <c r="BO19" s="47"/>
+      <c r="BP19" s="47"/>
+      <c r="BQ19" s="47"/>
+      <c r="BR19" s="45"/>
+      <c r="BS19" s="45"/>
+      <c r="BT19" s="45"/>
+      <c r="BU19" s="45"/>
+      <c r="BV19" s="45"/>
+      <c r="BW19" s="45"/>
+      <c r="BX19" s="45"/>
+      <c r="BY19" s="45"/>
+      <c r="BZ19" s="45"/>
+      <c r="CA19" s="45"/>
+      <c r="CB19" s="45"/>
     </row>
-    <row r="20" spans="1:81">
+    <row r="20" spans="1:80">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="35"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
       <c r="S20" s="35"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
       <c r="AC20" s="35"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="30"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="14"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="89"/>
-      <c r="AT20" s="89"/>
-      <c r="AU20" s="89"/>
-      <c r="AV20" s="89"/>
-      <c r="AW20" s="89"/>
-      <c r="AX20" s="89"/>
-      <c r="AY20" s="89"/>
-      <c r="AZ20" s="89"/>
-      <c r="BA20" s="89"/>
-      <c r="BB20" s="89"/>
-      <c r="BC20" s="89"/>
-      <c r="BD20" s="89"/>
-      <c r="BE20" s="89"/>
-      <c r="BF20" s="90"/>
-      <c r="BG20" s="90"/>
-      <c r="BH20" s="90"/>
-      <c r="BI20" s="90"/>
-      <c r="BJ20" s="81"/>
-      <c r="BK20" s="81"/>
-      <c r="BL20" s="81"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="84"/>
-      <c r="BO20" s="85"/>
-      <c r="BP20" s="85"/>
-      <c r="BQ20" s="85"/>
-      <c r="BR20" s="86"/>
-      <c r="BS20" s="86"/>
-      <c r="BT20" s="86"/>
-      <c r="BU20" s="86"/>
-      <c r="BV20" s="86"/>
-      <c r="BW20" s="86"/>
-      <c r="BX20" s="86"/>
-      <c r="BY20" s="86"/>
-      <c r="BZ20" s="86"/>
-      <c r="CA20" s="86"/>
-      <c r="CB20" s="86"/>
-      <c r="CC20" s="81"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BM20" s="43"/>
+      <c r="BN20" s="43"/>
+      <c r="BO20" s="44"/>
+      <c r="BP20" s="44"/>
+      <c r="BQ20" s="44"/>
+      <c r="BR20" s="45"/>
+      <c r="BS20" s="45"/>
+      <c r="BT20" s="45"/>
+      <c r="BU20" s="45"/>
+      <c r="BV20" s="45"/>
+      <c r="BW20" s="45"/>
+      <c r="BX20" s="45"/>
+      <c r="BY20" s="45"/>
+      <c r="BZ20" s="45"/>
+      <c r="CA20" s="45"/>
+      <c r="CB20" s="45"/>
     </row>
-    <row r="21" spans="1:81">
+    <row r="21" spans="1:80">
       <c r="A21" s="1"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
       <c r="N21" s="35"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
       <c r="S21" s="35"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
       <c r="AC21" s="35"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="66"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="31"/>
       <c r="AK21" s="14"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="12"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
-      <c r="AZ21" s="89"/>
-      <c r="BA21" s="89"/>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="89"/>
-      <c r="BD21" s="89"/>
-      <c r="BE21" s="89"/>
-      <c r="BF21" s="90"/>
-      <c r="BG21" s="90"/>
-      <c r="BH21" s="90"/>
-      <c r="BI21" s="90"/>
-      <c r="BJ21" s="81"/>
-      <c r="BK21" s="81"/>
-      <c r="BL21" s="81"/>
-      <c r="BM21" s="81"/>
-      <c r="BN21" s="81"/>
-      <c r="BO21" s="81"/>
-      <c r="BP21" s="81"/>
-      <c r="BQ21" s="81"/>
-      <c r="BR21" s="81"/>
-      <c r="BS21" s="81"/>
-      <c r="BT21" s="81"/>
-      <c r="BU21" s="81"/>
-      <c r="BV21" s="81"/>
-      <c r="BW21" s="81"/>
-      <c r="BX21" s="81"/>
-      <c r="BY21" s="81"/>
-      <c r="BZ21" s="81"/>
-      <c r="CA21" s="81"/>
-      <c r="CB21" s="81"/>
-      <c r="CC21" s="81"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
     </row>
-    <row r="22" spans="1:81">
+    <row r="22" spans="1:80">
       <c r="A22" s="1"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="35"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
       <c r="AC22" s="35"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="66"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="31"/>
       <c r="AK22" s="14"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="12"/>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="92"/>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="92"/>
-      <c r="AV22" s="92"/>
-      <c r="AW22" s="92"/>
-      <c r="AX22" s="92"/>
-      <c r="AY22" s="93"/>
-      <c r="AZ22" s="93"/>
-      <c r="BA22" s="93"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="93"/>
-      <c r="BE22" s="93"/>
-      <c r="BF22" s="94"/>
-      <c r="BG22" s="94"/>
-      <c r="BH22" s="94"/>
-      <c r="BI22" s="94"/>
-      <c r="BJ22" s="81"/>
-      <c r="BK22" s="81"/>
-      <c r="BL22" s="81"/>
-      <c r="BM22" s="81"/>
-      <c r="BN22" s="81"/>
-      <c r="BO22" s="81"/>
-      <c r="BP22" s="81"/>
-      <c r="BQ22" s="81"/>
-      <c r="BR22" s="81"/>
-      <c r="BS22" s="81"/>
-      <c r="BT22" s="81"/>
-      <c r="BU22" s="81"/>
-      <c r="BV22" s="81"/>
-      <c r="BW22" s="81"/>
-      <c r="BX22" s="81"/>
-      <c r="BY22" s="81"/>
-      <c r="BZ22" s="81"/>
-      <c r="CA22" s="81"/>
-      <c r="CB22" s="81"/>
-      <c r="CC22" s="81"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="37"/>
+      <c r="BH22" s="37"/>
+      <c r="BI22" s="37"/>
     </row>
-    <row r="23" spans="1:81">
+    <row r="23" spans="1:80">
       <c r="A23" s="1"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="35"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
       <c r="S23" s="35"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
       <c r="AC23" s="35"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="30"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="14"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="12"/>
     </row>
-    <row r="24" spans="1:81" ht="16.8" customHeight="1">
+    <row r="24" spans="1:80" ht="16.8" customHeight="1">
       <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
       <c r="N24" s="35"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
       <c r="AC24" s="35"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="30"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="14"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="12"/>
     </row>
-    <row r="25" spans="1:81">
+    <row r="25" spans="1:80" ht="17.399999999999999" thickBot="1">
       <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="30"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="85"/>
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="14"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
     </row>
-    <row r="26" spans="1:81" ht="7.95" customHeight="1" thickBot="1">
+    <row r="26" spans="1:80" ht="6" customHeight="1">
       <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="AJ26" s="31"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
       <c r="AK26" s="14"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="12"/>
     </row>
-    <row r="27" spans="1:81" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="27" spans="1:80" ht="10.199999999999999" customHeight="1">
       <c r="B27" s="13"/>
-      <c r="C27" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
       <c r="AK27" s="14"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
     </row>
-    <row r="28" spans="1:81" ht="42.6" customHeight="1" thickBot="1">
+    <row r="28" spans="1:80" ht="17.55" customHeight="1">
       <c r="B28" s="13"/>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="14"/>
+      <c r="AM28" s="12"/>
+    </row>
+    <row r="29" spans="1:80" ht="17.55" customHeight="1">
+      <c r="B29" s="13"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="14"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-    </row>
-    <row r="29" spans="1:81" ht="17.55" customHeight="1" thickBot="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="45" t="s">
-        <v>21</v>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25" t="s">
+        <v>18</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
       <c r="AK29" s="14"/>
       <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
     </row>
-    <row r="30" spans="1:81" ht="10.199999999999999" customHeight="1">
+    <row r="30" spans="1:80">
       <c r="B30" s="13"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
       <c r="AK30" s="14"/>
       <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
     </row>
-    <row r="31" spans="1:81" ht="17.55" customHeight="1">
+    <row r="31" spans="1:80">
       <c r="B31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
       <c r="AK31" s="14"/>
       <c r="AM31" s="12"/>
     </row>
-    <row r="32" spans="1:81" ht="17.55" customHeight="1">
+    <row r="32" spans="1:80">
       <c r="B32" s="13"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
       <c r="AK32" s="14"/>
       <c r="AM32" s="12"/>
     </row>
     <row r="33" spans="1:57">
-      <c r="B33" s="13"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="12"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="58"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="14"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="5"/>
       <c r="AM33" s="12"/>
+      <c r="AU33" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:57">
-      <c r="B34" s="13"/>
-      <c r="C34" s="25"/>
-      <c r="E34" s="12"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="14"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="5"/>
       <c r="AM34" s="12"/>
     </row>
-    <row r="35" spans="1:57">
-      <c r="B35" s="13"/>
-      <c r="C35" s="25"/>
-      <c r="E35" s="12"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="14"/>
+    <row r="35" spans="1:57" ht="15" customHeight="1" thickBot="1">
+      <c r="B35" s="7"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="9"/>
       <c r="AM35" s="12"/>
     </row>
     <row r="36" spans="1:57">
-      <c r="B36" s="4"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="5"/>
       <c r="AM36" s="12"/>
-      <c r="AU36" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="37" spans="1:57">
-      <c r="B37" s="4"/>
-      <c r="C37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="26"/>
-      <c r="AK37" s="5"/>
+      <c r="A37" s="1"/>
       <c r="AM37" s="12"/>
     </row>
-    <row r="38" spans="1:57" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AK38" s="9"/>
-      <c r="AM38" s="12"/>
-    </row>
-    <row r="39" spans="1:57">
-      <c r="AM39" s="12"/>
+    <row r="38" spans="1:57">
+      <c r="C38" s="20"/>
     </row>
     <row r="40" spans="1:57">
-      <c r="A40" s="1"/>
-      <c r="AM40" s="12"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="39"/>
+      <c r="AO40" s="39"/>
+      <c r="AP40" s="39"/>
+      <c r="AQ40" s="39"/>
+      <c r="AR40" s="39"/>
+      <c r="AS40" s="39"/>
+      <c r="AT40" s="40"/>
+      <c r="AU40" s="40"/>
+      <c r="AV40" s="40"/>
+      <c r="AW40" s="40"/>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="40"/>
+      <c r="AZ40" s="40"/>
+      <c r="BA40" s="40"/>
+      <c r="BB40" s="40"/>
+      <c r="BC40" s="40"/>
+      <c r="BD40" s="40"/>
+      <c r="BE40" s="40"/>
     </row>
     <row r="41" spans="1:57">
-      <c r="C41" s="25"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="40"/>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="40"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="40"/>
+      <c r="AV41" s="40"/>
+      <c r="AW41" s="40"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
+      <c r="BA41" s="41"/>
+      <c r="BB41" s="41"/>
+      <c r="BC41" s="41"/>
+      <c r="BD41" s="41"/>
+      <c r="BE41" s="41"/>
+    </row>
+    <row r="42" spans="1:57">
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="42"/>
+      <c r="AT42" s="42"/>
+      <c r="AU42" s="42"/>
+      <c r="AV42" s="42"/>
+      <c r="AW42" s="42"/>
+      <c r="AX42" s="42"/>
+      <c r="AY42" s="42"/>
+      <c r="AZ42" s="42"/>
+      <c r="BA42" s="42"/>
+      <c r="BB42" s="42"/>
+      <c r="BC42" s="42"/>
+      <c r="BD42" s="42"/>
+      <c r="BE42" s="42"/>
     </row>
     <row r="43" spans="1:57">
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="82"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82"/>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="82"/>
-      <c r="AL43" s="82"/>
-      <c r="AM43" s="82"/>
-      <c r="AN43" s="82"/>
-      <c r="AO43" s="82"/>
-      <c r="AP43" s="82"/>
-      <c r="AQ43" s="82"/>
-      <c r="AR43" s="82"/>
-      <c r="AS43" s="82"/>
-      <c r="AT43" s="83"/>
-      <c r="AU43" s="83"/>
-      <c r="AV43" s="83"/>
-      <c r="AW43" s="83"/>
-      <c r="AX43" s="83"/>
-      <c r="AY43" s="83"/>
-      <c r="AZ43" s="83"/>
-      <c r="BA43" s="83"/>
-      <c r="BB43" s="83"/>
-      <c r="BC43" s="83"/>
-      <c r="BD43" s="83"/>
-      <c r="BE43" s="83"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+      <c r="AT43" s="42"/>
+      <c r="AU43" s="42"/>
+      <c r="AV43" s="42"/>
+      <c r="AW43" s="42"/>
+      <c r="AX43" s="42"/>
+      <c r="AY43" s="42"/>
+      <c r="AZ43" s="42"/>
+      <c r="BA43" s="42"/>
+      <c r="BB43" s="42"/>
+      <c r="BC43" s="42"/>
+      <c r="BD43" s="42"/>
+      <c r="BE43" s="42"/>
     </row>
     <row r="44" spans="1:57">
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="86"/>
-      <c r="W44" s="86"/>
-      <c r="X44" s="86"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="82"/>
-      <c r="AD44" s="82"/>
-      <c r="AE44" s="82"/>
-      <c r="AF44" s="82"/>
-      <c r="AG44" s="82"/>
-      <c r="AH44" s="82"/>
-      <c r="AI44" s="82"/>
-      <c r="AJ44" s="82"/>
-      <c r="AK44" s="82"/>
-      <c r="AL44" s="82"/>
-      <c r="AM44" s="82"/>
-      <c r="AN44" s="82"/>
-      <c r="AO44" s="83"/>
-      <c r="AP44" s="83"/>
-      <c r="AQ44" s="83"/>
-      <c r="AR44" s="87"/>
-      <c r="AS44" s="87"/>
-      <c r="AT44" s="83"/>
-      <c r="AU44" s="83"/>
-      <c r="AV44" s="83"/>
-      <c r="AW44" s="83"/>
-      <c r="AX44" s="87"/>
-      <c r="AY44" s="87"/>
-      <c r="AZ44" s="87"/>
-      <c r="BA44" s="87"/>
-      <c r="BB44" s="87"/>
-      <c r="BC44" s="87"/>
-      <c r="BD44" s="87"/>
-      <c r="BE44" s="87"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="42"/>
+      <c r="AU44" s="42"/>
+      <c r="AV44" s="42"/>
+      <c r="AW44" s="42"/>
+      <c r="AX44" s="42"/>
+      <c r="AY44" s="42"/>
+      <c r="AZ44" s="42"/>
+      <c r="BA44" s="42"/>
+      <c r="BB44" s="42"/>
+      <c r="BC44" s="42"/>
+      <c r="BD44" s="42"/>
+      <c r="BE44" s="42"/>
     </row>
     <row r="45" spans="1:57">
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="86"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="89"/>
-      <c r="AD45" s="89"/>
-      <c r="AE45" s="89"/>
-      <c r="AF45" s="89"/>
-      <c r="AG45" s="89"/>
-      <c r="AH45" s="89"/>
-      <c r="AI45" s="89"/>
-      <c r="AJ45" s="89"/>
-      <c r="AK45" s="89"/>
-      <c r="AL45" s="89"/>
-      <c r="AM45" s="89"/>
-      <c r="AN45" s="89"/>
-      <c r="AO45" s="89"/>
-      <c r="AP45" s="89"/>
-      <c r="AQ45" s="89"/>
-      <c r="AR45" s="90"/>
-      <c r="AS45" s="90"/>
-      <c r="AT45" s="90"/>
-      <c r="AU45" s="90"/>
-      <c r="AV45" s="90"/>
-      <c r="AW45" s="90"/>
-      <c r="AX45" s="90"/>
-      <c r="AY45" s="90"/>
-      <c r="AZ45" s="90"/>
-      <c r="BA45" s="90"/>
-      <c r="BB45" s="90"/>
-      <c r="BC45" s="90"/>
-      <c r="BD45" s="90"/>
-      <c r="BE45" s="90"/>
-    </row>
-    <row r="46" spans="1:57">
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="86"/>
-      <c r="V46" s="86"/>
-      <c r="W46" s="86"/>
-      <c r="X46" s="86"/>
-      <c r="Y46" s="95"/>
-      <c r="Z46" s="95"/>
-      <c r="AA46" s="95"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="89"/>
-      <c r="AD46" s="89"/>
-      <c r="AE46" s="89"/>
-      <c r="AF46" s="89"/>
-      <c r="AG46" s="89"/>
-      <c r="AH46" s="89"/>
-      <c r="AI46" s="89"/>
-      <c r="AJ46" s="89"/>
-      <c r="AK46" s="89"/>
-      <c r="AL46" s="89"/>
-      <c r="AM46" s="89"/>
-      <c r="AN46" s="89"/>
-      <c r="AO46" s="89"/>
-      <c r="AP46" s="89"/>
-      <c r="AQ46" s="89"/>
-      <c r="AR46" s="90"/>
-      <c r="AS46" s="90"/>
-      <c r="AT46" s="90"/>
-      <c r="AU46" s="90"/>
-      <c r="AV46" s="90"/>
-      <c r="AW46" s="90"/>
-      <c r="AX46" s="90"/>
-      <c r="AY46" s="90"/>
-      <c r="AZ46" s="90"/>
-      <c r="BA46" s="90"/>
-      <c r="BB46" s="90"/>
-      <c r="BC46" s="90"/>
-      <c r="BD46" s="90"/>
-      <c r="BE46" s="90"/>
-    </row>
-    <row r="47" spans="1:57">
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="89"/>
-      <c r="AD47" s="89"/>
-      <c r="AE47" s="89"/>
-      <c r="AF47" s="89"/>
-      <c r="AG47" s="89"/>
-      <c r="AH47" s="89"/>
-      <c r="AI47" s="89"/>
-      <c r="AJ47" s="89"/>
-      <c r="AK47" s="89"/>
-      <c r="AL47" s="89"/>
-      <c r="AM47" s="89"/>
-      <c r="AN47" s="89"/>
-      <c r="AO47" s="89"/>
-      <c r="AP47" s="89"/>
-      <c r="AQ47" s="89"/>
-      <c r="AR47" s="90"/>
-      <c r="AS47" s="90"/>
-      <c r="AT47" s="90"/>
-      <c r="AU47" s="90"/>
-      <c r="AV47" s="90"/>
-      <c r="AW47" s="90"/>
-      <c r="AX47" s="90"/>
-      <c r="AY47" s="90"/>
-      <c r="AZ47" s="90"/>
-      <c r="BA47" s="90"/>
-      <c r="BB47" s="90"/>
-      <c r="BC47" s="90"/>
-      <c r="BD47" s="90"/>
-      <c r="BE47" s="90"/>
-    </row>
-    <row r="48" spans="1:57">
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="V48" s="81"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81"/>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
-      <c r="AA48" s="81"/>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="92"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="92"/>
-      <c r="AF48" s="92"/>
-      <c r="AG48" s="92"/>
-      <c r="AH48" s="92"/>
-      <c r="AI48" s="92"/>
-      <c r="AJ48" s="92"/>
-      <c r="AK48" s="93"/>
-      <c r="AL48" s="93"/>
-      <c r="AM48" s="93"/>
-      <c r="AN48" s="93"/>
-      <c r="AO48" s="93"/>
-      <c r="AP48" s="93"/>
-      <c r="AQ48" s="93"/>
-      <c r="AR48" s="94"/>
-      <c r="AS48" s="94"/>
-      <c r="AT48" s="94"/>
-      <c r="AU48" s="94"/>
-      <c r="AV48" s="94"/>
-      <c r="AW48" s="94"/>
-      <c r="AX48" s="94"/>
-      <c r="AY48" s="94"/>
-      <c r="AZ48" s="94"/>
-      <c r="BA48" s="94"/>
-      <c r="BB48" s="94"/>
-      <c r="BC48" s="94"/>
-      <c r="BD48" s="94"/>
-      <c r="BE48" s="94"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="36"/>
+      <c r="AN45" s="36"/>
+      <c r="AO45" s="36"/>
+      <c r="AP45" s="36"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="37"/>
+      <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="37"/>
+      <c r="AX45" s="37"/>
+      <c r="AY45" s="37"/>
+      <c r="AZ45" s="37"/>
+      <c r="BA45" s="37"/>
+      <c r="BB45" s="37"/>
+      <c r="BC45" s="37"/>
+      <c r="BD45" s="37"/>
+      <c r="BE45" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="Z36:AE36"/>
-    <mergeCell ref="S32:Y32"/>
-    <mergeCell ref="S33:Y35"/>
-    <mergeCell ref="S36:Y36"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="AD22:AJ22"/>
-    <mergeCell ref="AD23:AJ23"/>
-    <mergeCell ref="AD24:AJ24"/>
-    <mergeCell ref="AD25:AJ25"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="AF32:AJ32"/>
-    <mergeCell ref="AF33:AJ35"/>
-    <mergeCell ref="AF36:AJ36"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="N31:AE31"/>
-    <mergeCell ref="D25:N25"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="AY22:BB22"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BF22:BI22"/>
-    <mergeCell ref="AS19:AX21"/>
-    <mergeCell ref="AY19:BB21"/>
-    <mergeCell ref="BC19:BE21"/>
-    <mergeCell ref="AS17:BE17"/>
-    <mergeCell ref="AS18:AX18"/>
-    <mergeCell ref="AY18:BB18"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BF18:BI18"/>
-    <mergeCell ref="BF17:BI17"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="BF19:BI21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD17:AJ17"/>
-    <mergeCell ref="AD18:AJ18"/>
-    <mergeCell ref="AD19:AJ19"/>
-    <mergeCell ref="AD20:AJ20"/>
-    <mergeCell ref="AD21:AJ21"/>
-    <mergeCell ref="BM17:BN20"/>
-    <mergeCell ref="BO17:BQ17"/>
-    <mergeCell ref="BR17:CB17"/>
-    <mergeCell ref="BO18:BQ18"/>
-    <mergeCell ref="BR18:CB18"/>
-    <mergeCell ref="BO19:BQ19"/>
-    <mergeCell ref="BR19:CB19"/>
-    <mergeCell ref="BO20:BQ20"/>
-    <mergeCell ref="BR20:CB20"/>
-    <mergeCell ref="BB45:BE47"/>
-    <mergeCell ref="AK48:AN48"/>
-    <mergeCell ref="AO48:AQ48"/>
-    <mergeCell ref="AR48:AS48"/>
-    <mergeCell ref="AT48:AW48"/>
-    <mergeCell ref="AX48:BA48"/>
-    <mergeCell ref="BB48:BE48"/>
-    <mergeCell ref="AC45:AJ47"/>
-    <mergeCell ref="AK45:AN47"/>
-    <mergeCell ref="AO45:AQ47"/>
-    <mergeCell ref="AR45:AS47"/>
-    <mergeCell ref="AT45:AW47"/>
-    <mergeCell ref="AX45:BA47"/>
-    <mergeCell ref="AC43:AS43"/>
-    <mergeCell ref="AT43:BE43"/>
-    <mergeCell ref="AC44:AJ44"/>
-    <mergeCell ref="AK44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AT44:AW44"/>
-    <mergeCell ref="AX44:BA44"/>
-    <mergeCell ref="BB44:BE44"/>
-    <mergeCell ref="F43:G46"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:X43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:X44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:X45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:X46"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="C27:AJ27"/>
-    <mergeCell ref="C28:AJ28"/>
-    <mergeCell ref="C29:AJ29"/>
-    <mergeCell ref="Z33:AE35"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D21:N21"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="O22:S22"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="O24:S24"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="Y25:AC25"/>
+  <mergeCells count="127">
     <mergeCell ref="D17:N17"/>
     <mergeCell ref="D18:N18"/>
     <mergeCell ref="T17:X17"/>
@@ -4909,6 +4696,112 @@
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Z30:AE32"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="F40:G43"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:X40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:X41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:X42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:X43"/>
+    <mergeCell ref="AC40:AS40"/>
+    <mergeCell ref="AT40:BE40"/>
+    <mergeCell ref="AC41:AJ41"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AX41:BA41"/>
+    <mergeCell ref="BB41:BE41"/>
+    <mergeCell ref="BB42:BE44"/>
+    <mergeCell ref="AK45:AN45"/>
+    <mergeCell ref="AO45:AQ45"/>
+    <mergeCell ref="AR45:AS45"/>
+    <mergeCell ref="AT45:AW45"/>
+    <mergeCell ref="AX45:BA45"/>
+    <mergeCell ref="BB45:BE45"/>
+    <mergeCell ref="AC42:AJ44"/>
+    <mergeCell ref="AK42:AN44"/>
+    <mergeCell ref="AO42:AQ44"/>
+    <mergeCell ref="AR42:AS44"/>
+    <mergeCell ref="AT42:AW44"/>
+    <mergeCell ref="AX42:BA44"/>
+    <mergeCell ref="BM17:BN20"/>
+    <mergeCell ref="BO17:BQ17"/>
+    <mergeCell ref="BR17:CB17"/>
+    <mergeCell ref="BO18:BQ18"/>
+    <mergeCell ref="BR18:CB18"/>
+    <mergeCell ref="BO19:BQ19"/>
+    <mergeCell ref="BR19:CB19"/>
+    <mergeCell ref="BO20:BQ20"/>
+    <mergeCell ref="BR20:CB20"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="BF19:BI21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD17:AJ17"/>
+    <mergeCell ref="AD18:AJ18"/>
+    <mergeCell ref="AD19:AJ19"/>
+    <mergeCell ref="AD20:AJ20"/>
+    <mergeCell ref="AD21:AJ21"/>
+    <mergeCell ref="AY22:BB22"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BF22:BI22"/>
+    <mergeCell ref="AS19:AX21"/>
+    <mergeCell ref="AY19:BB21"/>
+    <mergeCell ref="BC19:BE21"/>
+    <mergeCell ref="AS17:BE17"/>
+    <mergeCell ref="AS18:AX18"/>
+    <mergeCell ref="AY18:BB18"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="BF18:BI18"/>
+    <mergeCell ref="BF17:BI17"/>
+    <mergeCell ref="Z33:AE33"/>
+    <mergeCell ref="S29:Y29"/>
+    <mergeCell ref="S30:Y32"/>
+    <mergeCell ref="S33:Y33"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R32"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="AD22:AJ22"/>
+    <mergeCell ref="AD23:AJ23"/>
+    <mergeCell ref="AD24:AJ24"/>
+    <mergeCell ref="AD25:AJ25"/>
+    <mergeCell ref="AF28:AJ28"/>
+    <mergeCell ref="AF29:AJ29"/>
+    <mergeCell ref="AF30:AJ32"/>
+    <mergeCell ref="AF33:AJ33"/>
+    <mergeCell ref="Z29:AE29"/>
+    <mergeCell ref="N28:AE28"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T23:X23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
